--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354265</v>
+        <v>431889.0009836451</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589803</v>
+        <v>3840854.495975447</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183876</v>
+        <v>10457196.99249323</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.265316057196693</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.8385894655533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.81301614990497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>66.46948864201228</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -980,25 +980,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>88.61775520402702</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>183.783629917503</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F8" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>87.80598074015799</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>129.3677673775501</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.1922854952467</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>96.49046851699705</v>
+        <v>54.13059394607473</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643704</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
         <v>99.90681807664345</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5654198538185</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>49.22623797673975</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>60.25623355020934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>17.38476730790943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>212.4968399736213</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.454476553030544</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>185.1266094715923</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>8.247856666954474</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.65288712814</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664342</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958656</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183491</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459915</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>195.0194028815132</v>
       </c>
       <c r="U18" t="n">
         <v>225.8573996139459</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794169</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176881</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>48.96389429824571</v>
       </c>
       <c r="V19" t="n">
-        <v>14.05890032304941</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>106.7564783906974</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>339.121758904195</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.9467516048418</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>24.19520516239823</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>328.7871882650733</v>
+        <v>20.86956528937761</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5650375952951</v>
+        <v>227.9017882635736</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>108.2137440829243</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>139.4808073423817</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>84.36818086341015</v>
+        <v>121.4683101124997</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>270.7856227119594</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.08755516866977</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.58007567966611</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.454476553030431</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.260654658097</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>180.0188334367343</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>373.5207484379625</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.0140383262353</v>
+        <v>137.9199537831928</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>377.8575238323428</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.65966349238604</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.0140383262355</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>227.9017882635736</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>267.1144465801373</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>38.85539149269854</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>321.3744953079341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>50.10526536220779</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6890722671491</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>321.7501835455643</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>248.7186755353478</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.01730406564411</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1963253168159</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6344114530736</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2256951695733</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>232.1154824550576</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>475.3318284112885</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>475.3318284112885</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>475.3318284112885</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>929.9119884758385</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>718.7806050553886</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="U5" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V5" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7806050553886</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="C6" t="n">
-        <v>621.3887892094411</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>472.4543795481899</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>313.2169245427344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>313.2169245427344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357626</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097865</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097865</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097865</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>362.2333848900864</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>362.2333848900864</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="D8" t="n">
-        <v>742.8341567219593</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="E8" t="n">
-        <v>742.8341567219593</v>
+        <v>375.6533169502999</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>375.6533169502999</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>375.6533169502999</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>109.7522725546768</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>907.4554057415462</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.2466632505798</v>
+        <v>464.8677294288217</v>
       </c>
       <c r="C9" t="n">
-        <v>286.7936339694528</v>
+        <v>290.4147001476947</v>
       </c>
       <c r="D9" t="n">
-        <v>286.7936339694528</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="E9" t="n">
-        <v>127.5561789639973</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>281.6689763282836</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.2785899404338</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>802.691654032926</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>994.6930287110247</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>672.6280281937757</v>
       </c>
       <c r="Y9" t="n">
-        <v>461.2466632505798</v>
+        <v>464.8677294288217</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>113.583345248266</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>113.583345248266</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.0420736155681</v>
+        <v>1268.520020130478</v>
       </c>
       <c r="C11" t="n">
-        <v>953.0420736155681</v>
+        <v>1268.520020130478</v>
       </c>
       <c r="D11" t="n">
-        <v>953.0420736155681</v>
+        <v>910.2543215237274</v>
       </c>
       <c r="E11" t="n">
-        <v>567.2538210173238</v>
+        <v>524.4660689254831</v>
       </c>
       <c r="F11" t="n">
         <v>469.7887013031854</v>
@@ -5041,25 +5041,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M11" t="n">
-        <v>1341.029393337099</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N11" t="n">
-        <v>1968.337061396946</v>
+        <v>1610.188611289942</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U11" t="n">
-        <v>2010.339374490333</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V11" t="n">
-        <v>1679.276487146762</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W11" t="n">
-        <v>1326.507831876648</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="X11" t="n">
-        <v>953.0420736155681</v>
+        <v>1655.1198601946</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.0420736155681</v>
+        <v>1655.1198601946</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E12" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F12" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
         <v>199.5217544044918</v>
@@ -5117,28 +5117,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454227</v>
+        <v>316.2580578546455</v>
       </c>
       <c r="L12" t="n">
-        <v>886.4908637115414</v>
+        <v>453.4876558703395</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.248516892441</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
         <v>2635.045976980643</v>
@@ -5159,10 +5159,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
         <v>1134.337940986287</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C13" t="n">
-        <v>944.9937627627774</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D13" t="n">
-        <v>794.8771233504416</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E13" t="n">
-        <v>646.9640297680485</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F13" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
         <v>52.70091953961285</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T13" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U13" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V13" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W13" t="n">
-        <v>1052.635600998958</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X13" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y13" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.9656289833272</v>
+        <v>1285.410358284908</v>
       </c>
       <c r="C14" t="n">
-        <v>893.9656289833272</v>
+        <v>916.4478413444967</v>
       </c>
       <c r="D14" t="n">
-        <v>876.4052579652368</v>
+        <v>558.1821427377463</v>
       </c>
       <c r="E14" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="F14" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G14" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H14" t="n">
         <v>172.393890139502</v>
@@ -5284,19 +5284,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.621189819594</v>
+        <v>964.3339206741936</v>
       </c>
       <c r="M14" t="n">
-        <v>1829.339000802906</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N14" t="n">
-        <v>2319.158506392561</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O14" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q14" t="n">
         <v>2635.045976980643</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U14" t="n">
-        <v>2010.339374490333</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V14" t="n">
-        <v>2010.339374490333</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W14" t="n">
-        <v>1657.570719220219</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X14" t="n">
-        <v>1284.104960959139</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="Y14" t="n">
-        <v>893.9656289833272</v>
+        <v>1346.275240658857</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5354,28 +5354,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L15" t="n">
-        <v>624.6702790690885</v>
+        <v>914.5356689828393</v>
       </c>
       <c r="M15" t="n">
-        <v>1265.215628536193</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.905258545106</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
         <v>52.70091953961285</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>500.0740822701381</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U16" t="n">
-        <v>500.0740822701381</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V16" t="n">
-        <v>500.0740822701381</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W16" t="n">
-        <v>500.0740822701381</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y16" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>429.9946048304836</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="C17" t="n">
-        <v>61.03208789007192</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D17" t="n">
-        <v>52.70091953961285</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E17" t="n">
-        <v>52.70091953961285</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F17" t="n">
-        <v>52.70091953961285</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
         <v>52.70091953961285</v>
@@ -5515,25 +5515,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533497</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733958</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.360139381976</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207384</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N17" t="n">
-        <v>1413.393765099368</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.554969866446</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P17" t="n">
-        <v>2389.870016205741</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5545,22 +5545,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U17" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V17" t="n">
-        <v>1932.968190401611</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W17" t="n">
-        <v>1580.199535131497</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.733776870417</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y17" t="n">
-        <v>816.5944448946054</v>
+        <v>1794.999396863786</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238402</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183846</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452697</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044916</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929625</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
@@ -5597,22 +5597,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>295.3416275592141</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>799.7031674253333</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.248516892439</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N18" t="n">
-        <v>1638.905258545104</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.341267297828</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5639,7 +5639,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>364.0233648525559</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>195.0871819246489</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
-        <v>70.5755072989753</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J19" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="K19" t="n">
-        <v>153.7488491352229</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L19" t="n">
-        <v>338.5818440360417</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M19" t="n">
-        <v>543.85144475528</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N19" t="n">
-        <v>749.6748095913847</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O19" t="n">
-        <v>923.7697049799839</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P19" t="n">
-        <v>1049.2172815786</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q19" t="n">
-        <v>1052.63560099896</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R19" t="n">
-        <v>1052.63560099896</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>1052.63560099896</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T19" t="n">
-        <v>827.0064043113249</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U19" t="n">
-        <v>827.0064043113249</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V19" t="n">
-        <v>812.8054948941033</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W19" t="n">
-        <v>812.8054948941033</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X19" t="n">
-        <v>584.8159439960859</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.0233648525559</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1273.552214342289</v>
+        <v>1140.175638163461</v>
       </c>
       <c r="C20" t="n">
-        <v>904.5896974018776</v>
+        <v>1140.175638163461</v>
       </c>
       <c r="D20" t="n">
-        <v>546.3239987951272</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="E20" t="n">
-        <v>160.5357461968829</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F20" t="n">
-        <v>160.5357461968829</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G20" t="n">
-        <v>160.5357461968829</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
         <v>52.70091953961285</v>
@@ -5755,22 +5755,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>876.7172313741407</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M20" t="n">
-        <v>1508.435042357452</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N20" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V20" t="n">
-        <v>2050.291386382223</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W20" t="n">
-        <v>2050.291386382223</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.291386382223</v>
+        <v>1140.175638163461</v>
       </c>
       <c r="Y20" t="n">
-        <v>1660.152054406411</v>
+        <v>1140.175638163461</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D21" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K21" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
         <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N21" t="n">
         <v>1430.928743686615</v>
@@ -5849,10 +5849,10 @@
         <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q21" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R21" t="n">
         <v>2613.934077382829</v>
@@ -5864,7 +5864,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V21" t="n">
         <v>1804.187096684975</v>
@@ -5876,7 +5876,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.7537418798555</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C22" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D22" t="n">
         <v>52.70091953961285</v>
@@ -5934,28 +5934,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.184336751643</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V22" t="n">
-        <v>1002.184336751643</v>
+        <v>739.0438234024978</v>
       </c>
       <c r="W22" t="n">
-        <v>1002.184336751643</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="X22" t="n">
-        <v>774.1947858536254</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y22" t="n">
-        <v>553.4022067100952</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1908.811563449448</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="C23" t="n">
-        <v>1539.849046509037</v>
+        <v>432.0469871255327</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.583347902286</v>
+        <v>73.78128851878216</v>
       </c>
       <c r="E23" t="n">
-        <v>795.795095304042</v>
+        <v>73.78128851878216</v>
       </c>
       <c r="F23" t="n">
-        <v>384.8091905144344</v>
+        <v>73.78128851878216</v>
       </c>
       <c r="G23" t="n">
         <v>52.70091953961285</v>
@@ -5995,10 +5995,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N23" t="n">
         <v>1413.39376509937</v>
@@ -6025,16 +6025,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V23" t="n">
-        <v>2635.045976980643</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W23" t="n">
-        <v>2282.277321710528</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X23" t="n">
-        <v>1908.811563449448</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y23" t="n">
-        <v>1908.811563449448</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>402.643253654265</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L24" t="n">
-        <v>907.0047935203836</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M24" t="n">
-        <v>1547.550142987488</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O24" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P24" t="n">
         <v>2404.332520920175</v>
@@ -6177,16 +6177,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U25" t="n">
-        <v>824.7921286804777</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V25" t="n">
-        <v>570.1076404745909</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W25" t="n">
-        <v>280.6904704376302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X25" t="n">
         <v>52.70091953961285</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1704.478944518417</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C26" t="n">
-        <v>1704.478944518417</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D26" t="n">
-        <v>1704.478944518417</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E26" t="n">
-        <v>1318.690691920173</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F26" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H26" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K26" t="n">
-        <v>543.8121920580325</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>683.1408478992856</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M26" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N26" t="n">
-        <v>1942.166326942444</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2525.739164775669</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2310.93930304338</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U26" t="n">
-        <v>2057.247599788531</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.247599788531</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.478944518417</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="X26" t="n">
-        <v>1704.478944518417</v>
+        <v>2025.664707607261</v>
       </c>
       <c r="Y26" t="n">
-        <v>1704.478944518417</v>
+        <v>1635.525375631449</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D27" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L27" t="n">
-        <v>638.0181737180123</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.563523185117</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N27" t="n">
-        <v>1930.737402487826</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O27" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.7173549707657</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="C28" t="n">
-        <v>714.7173549707657</v>
+        <v>175.3961822795115</v>
       </c>
       <c r="D28" t="n">
-        <v>564.6007155584299</v>
+        <v>175.3961822795115</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6876219760368</v>
+        <v>175.3961822795115</v>
       </c>
       <c r="F28" t="n">
-        <v>416.6876219760368</v>
+        <v>175.3961822795115</v>
       </c>
       <c r="G28" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H28" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6408,28 +6408,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R28" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>714.7173549707657</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U28" t="n">
-        <v>714.7173549707657</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V28" t="n">
-        <v>714.7173549707657</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W28" t="n">
-        <v>714.7173549707657</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X28" t="n">
-        <v>714.7173549707657</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.7173549707657</v>
+        <v>344.3323652074184</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1218.437593867876</v>
+        <v>1858.306804940709</v>
       </c>
       <c r="C29" t="n">
-        <v>849.4750769274647</v>
+        <v>1858.306804940709</v>
       </c>
       <c r="D29" t="n">
-        <v>849.4750769274647</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E29" t="n">
-        <v>463.6868243292204</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F29" t="n">
-        <v>52.70091953961286</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
@@ -6478,7 +6478,7 @@
         <v>1413.39376509937</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P29" t="n">
         <v>2389.870016205742</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2583.442385901179</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2368.64252416889</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U29" t="n">
-        <v>2368.64252416889</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.64252416889</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W29" t="n">
-        <v>2368.64252416889</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X29" t="n">
-        <v>1995.17676590781</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Y29" t="n">
-        <v>1605.037433931998</v>
+        <v>2244.906645004831</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454227</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L30" t="n">
-        <v>886.4908637115414</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M30" t="n">
-        <v>1527.036213178646</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N30" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961286</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961286</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961286</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961286</v>
+        <v>71.46867275139681</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6648,25 +6648,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>1050.156331753472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>824.5271350658372</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>535.3749586435171</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V31" t="n">
-        <v>280.6904704376302</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W31" t="n">
-        <v>280.6904704376302</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X31" t="n">
-        <v>52.70091953961286</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.70091953961286</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>429.9946048304841</v>
+        <v>1448.400064182688</v>
       </c>
       <c r="C32" t="n">
-        <v>429.9946048304841</v>
+        <v>1448.400064182688</v>
       </c>
       <c r="D32" t="n">
-        <v>429.9946048304841</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E32" t="n">
-        <v>429.9946048304841</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
-        <v>429.9946048304841</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M32" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N32" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2264.031077745182</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V32" t="n">
-        <v>1932.968190401612</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W32" t="n">
-        <v>1580.199535131497</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X32" t="n">
-        <v>1206.733776870418</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="Y32" t="n">
-        <v>816.5944448946059</v>
+        <v>1834.99990424681</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K33" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L33" t="n">
-        <v>743.329530925984</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M33" t="n">
-        <v>1383.874880393089</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N33" t="n">
-        <v>1582.531622045753</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.967630798476</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="D34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6888,22 +6888,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>885.9547542047806</v>
+        <v>913.32251636947</v>
       </c>
       <c r="U34" t="n">
-        <v>596.8025777824604</v>
+        <v>913.32251636947</v>
       </c>
       <c r="V34" t="n">
-        <v>342.1180895765735</v>
+        <v>658.6380281635832</v>
       </c>
       <c r="W34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="X34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1231.149343424781</v>
+        <v>1307.383399136297</v>
       </c>
       <c r="C35" t="n">
-        <v>1231.149343424781</v>
+        <v>1307.383399136297</v>
       </c>
       <c r="D35" t="n">
-        <v>1231.149343424781</v>
+        <v>949.1177005295465</v>
       </c>
       <c r="E35" t="n">
-        <v>845.3610908265364</v>
+        <v>949.1177005295465</v>
       </c>
       <c r="F35" t="n">
-        <v>434.3751860369288</v>
+        <v>538.131795739939</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961286</v>
+        <v>121.0440139763664</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>121.0440139763664</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>876.7172313741407</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M35" t="n">
-        <v>1508.435042357452</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.742710417299</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>2305.911735734258</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6973,16 +6973,16 @@
         <v>2381.354273725794</v>
       </c>
       <c r="V35" t="n">
-        <v>2381.354273725794</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W35" t="n">
-        <v>2381.354273725794</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X35" t="n">
-        <v>2007.888515464714</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="Y35" t="n">
-        <v>1617.749183488902</v>
+        <v>1307.383399136297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D36" t="n">
         <v>642.7351650238404</v>
@@ -7007,10 +7007,10 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
         <v>52.70091953961286</v>
@@ -7022,16 +7022,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M36" t="n">
-        <v>1278.563523185117</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N36" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O36" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7040,7 +7040,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7055,10 +7055,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y36" t="n">
         <v>1134.337940986287</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L37" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M37" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N37" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O37" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P37" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>2468.365130186466</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U37" t="n">
-        <v>2179.212953764145</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V37" t="n">
-        <v>1924.528465558259</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1540.377999400181</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="C38" t="n">
-        <v>1171.415482459769</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="D38" t="n">
-        <v>1171.415482459769</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="E38" t="n">
-        <v>901.6029101566</v>
+        <v>920.0224762874379</v>
       </c>
       <c r="F38" t="n">
-        <v>490.6170053669925</v>
+        <v>509.0365714978304</v>
       </c>
       <c r="G38" t="n">
-        <v>490.6170053669925</v>
+        <v>91.94878973425784</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>91.94878973425784</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
         <v>241.3408185533492</v>
@@ -7183,13 +7183,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M38" t="n">
-        <v>1219.059552207388</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N38" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P38" t="n">
         <v>2389.870016205742</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U38" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V38" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W38" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X38" t="n">
-        <v>1930.517331375992</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="Y38" t="n">
-        <v>1540.377999400181</v>
+        <v>1305.810728885682</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,13 +7244,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
         <v>171.3601713965085</v>
@@ -7259,16 +7259,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L39" t="n">
-        <v>981.6503486508086</v>
+        <v>843.4113519543016</v>
       </c>
       <c r="M39" t="n">
-        <v>1622.195698117913</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N39" t="n">
-        <v>1820.852439770578</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439339</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,7 +7277,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7371,13 +7371,13 @@
         <v>342.1180895765735</v>
       </c>
       <c r="W40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1132.072391409515</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="C41" t="n">
-        <v>763.1098744691037</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="D41" t="n">
-        <v>763.1098744691037</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E41" t="n">
-        <v>377.3216218708595</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F41" t="n">
         <v>52.70091953961286</v>
@@ -7417,13 +7417,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L41" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M41" t="n">
-        <v>1219.059552207388</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O41" t="n">
         <v>1960.554969866448</v>
@@ -7444,19 +7444,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U41" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V41" t="n">
-        <v>2635.045976980643</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W41" t="n">
-        <v>2282.277321710529</v>
+        <v>1999.680007228478</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.811563449449</v>
+        <v>1626.214248967398</v>
       </c>
       <c r="Y41" t="n">
-        <v>1518.672231473637</v>
+        <v>1236.074916991586</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I42" t="n">
         <v>52.70091953961286</v>
@@ -7496,16 +7496,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L42" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M42" t="n">
-        <v>1278.563523185117</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N42" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O42" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>330.4139431414077</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C43" t="n">
-        <v>161.4777602135008</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4777602135008</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
-        <v>161.4777602135008</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F43" t="n">
-        <v>161.4777602135008</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G43" t="n">
         <v>52.70091953961286</v>
@@ -7596,25 +7596,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>330.4139431414077</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V43" t="n">
-        <v>330.4139431414077</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W43" t="n">
-        <v>330.4139431414077</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X43" t="n">
-        <v>330.4139431414077</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y43" t="n">
-        <v>330.4139431414077</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.475262327025</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="C44" t="n">
-        <v>1174.475262327025</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.475262327025</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E44" t="n">
-        <v>788.6870097287804</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F44" t="n">
-        <v>377.7011049391728</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G44" t="n">
         <v>52.70091953961286</v>
@@ -7648,52 +7648,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V44" t="n">
-        <v>2303.983089637072</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.214434366958</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X44" t="n">
-        <v>1951.214434366958</v>
+        <v>1851.673477961542</v>
       </c>
       <c r="Y44" t="n">
-        <v>1561.075102391146</v>
+        <v>1600.442492572302</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>118.0354471182384</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>569.6779704479322</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>871.2395336502893</v>
+        <v>843.4113519543018</v>
       </c>
       <c r="M45" t="n">
-        <v>1242.504522339679</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.004435461972</v>
+        <v>2136.130580724116</v>
       </c>
       <c r="O45" t="n">
-        <v>1977.589793590401</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P45" t="n">
-        <v>2415.962991440182</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.310729830173</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.6371024675198</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C46" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D46" t="n">
         <v>52.70091953961286</v>
@@ -7806,52 +7806,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>80.04222654763831</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>254.8092295930466</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>533.9772579209388</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>838.7099246413406</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1562.782938493304</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1366.625034132884</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>1143.761992261092</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>854.6451284534421</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V46" t="n">
-        <v>599.9606402475553</v>
+        <v>592.5463210233856</v>
       </c>
       <c r="W46" t="n">
-        <v>310.5434702105946</v>
+        <v>592.5463210233856</v>
       </c>
       <c r="X46" t="n">
-        <v>310.5434702105946</v>
+        <v>592.5463210233856</v>
       </c>
       <c r="Y46" t="n">
-        <v>310.5434702105946</v>
+        <v>371.7537418798555</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>192.5268253278643</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>354.365095955167</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>78.07077454018179</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>378.0407240669646</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>298.4699926239126</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>279.310601277603</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>176.8008973295436</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>250.7308605730563</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928099</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>176.8008973295391</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,28 +9403,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>241.815223932332</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263482</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9643,13 +9643,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>250.7308605730627</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.328548075151</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>222.1295140707988</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P27" t="n">
-        <v>207.4678568043331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>250.7308605730631</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N30" t="n">
-        <v>96.1206918578458</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>165.3285480751516</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,25 +10588,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>185.2684807830939</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298244</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>207.4678568043331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7308605730632</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>347.1032070028245</v>
+        <v>207.4678568043326</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>213.8698272853578</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>207.4678568043331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.166261194686115</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>207.4678568043328</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>187.0293695161395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>8.683973297415823</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>16.10061421062355</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.84410631175106</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>156.5617083198471</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>48.72576195918361</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>21.98935528597443</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>86.81957671340953</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0123189464189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119.1031814492129</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23105,25 +23105,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>18.07729818708867</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>37.87692689813716</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>137.4656039084742</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>310.3855772247144</v>
+        <v>352.7454517956367</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>60.68140124480932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176898</v>
@@ -23466,22 +23466,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.2967603598512</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>322.4776081132712</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.2982743127735</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
         <v>17.69584188176898</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>10.87606474713743</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>284.0685217835605</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>197.6072321918883</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>346.4351849537285</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752155</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938901</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,10 +23910,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677912</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>237.2967603598513</v>
       </c>
       <c r="V19" t="n">
-        <v>238.0787430007786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>208.2844056845182</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24022,7 +24022,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>30.60934177427407</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>79.2264300629495</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001186</v>
@@ -24183,19 +24183,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>227.9424381614298</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>84.12971568086346</v>
+        <v>392.0473386565592</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -24265,7 +24265,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24417,10 +24417,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.69561706280186</v>
+        <v>58.3588663945234</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.43914304521593</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>230.2502933360873</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>82.55259569116029</v>
+        <v>45.45246644207077</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
         <v>17.69584188176898</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>83.89741890872352</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.5653319594704</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
         <v>251.1547862223006</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24888,10 +24888,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>202.9114053470882</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>174.6642081839487</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>39.3961555079743</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25128,10 +25128,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>58.35886639452337</v>
+        <v>85.45295093756593</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>35.05938011359399</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>50.83637740150425</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>58.35886639452315</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>58.3588663945234</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>114.8159234921245</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>79.64064940119175</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>85.50155043377731</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
@@ -25684,13 +25684,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>299.1357033552052</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>59.23170428742137</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25836,22 +25836,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>60.69561706280189</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>89.73789038366095</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>137.5192631207058</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.81467611629319</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2798525983037</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0137000398793</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>20.02216086877041</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378618</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378618</v>
+        <v>493620.5445765709</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378618</v>
+        <v>509635.5853000616</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986438</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
-        <v>252134.994062353</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="F2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="H2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="I2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="J2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="L2" t="n">
         <v>252134.9940623532</v>
@@ -26352,10 +26352,10 @@
         <v>252134.9940623532</v>
       </c>
       <c r="O2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314357</v>
+        <v>252134.9940623531</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.060680460795993e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847434</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>98565.03158297982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50480.80391628888</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
@@ -26432,7 +26432,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511362</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26441,25 +26441,25 @@
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>7416.310118926249</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26484,7 +26484,7 @@
         <v>52990.47783747558</v>
       </c>
       <c r="G5" t="n">
-        <v>52990.47783747561</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="H5" t="n">
         <v>52990.47783747558</v>
@@ -26493,25 +26493,25 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
         <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121148</v>
+        <v>-50417.14319125189</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.29896033626</v>
+        <v>26588.92740361418</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.29896033632</v>
+        <v>12499.89299923297</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143567</v>
+        <v>-419088.8864625798</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097629</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097648</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065764</v>
+        <v>94256.03910301249</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097639</v>
+        <v>156402.7258996615</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097639</v>
+        <v>152588.4185832713</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336103</v>
+        <v>58750.95011913894</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021186</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.1234897887</v>
+        <v>157315.9817021187</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26752,7 +26752,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380664</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,19 +26813,19 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
         <v>658.7614942451607</v>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198255</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055164</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651583</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937406</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779028</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971254</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074835</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335968</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822529</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426709</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457582</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
-        <v>149.86911794115</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.3671824581053</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916537</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358604</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840369</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985304</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182851</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847386</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070433</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512829</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842462</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
-        <v>332.005087490066</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947084</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671579</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607461</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080822</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784632</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308329</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897171</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888316</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207038</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784138</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490396</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790244</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889957</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676931</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441095</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714141</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720923</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104803</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937829</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685365</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522805</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390824</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>58.86374454105339</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>526.2530003157322</v>
+        <v>353.9054127035407</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>146.3615014728657</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>559.3511648291917</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>322.7535243442413</v>
       </c>
       <c r="M14" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>494.7671773632887</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>417.926356849011</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>377.4642727362756</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391281</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>407.542538404087</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>391.4668765743231</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5852654802107</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393771</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233115</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.651561958884</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312134</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0916242622235</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748678</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122278</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067327</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269935</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927648</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472459</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531415</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493118</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295336</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233381</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854538</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369858</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353642</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>438.1124086717081</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348619</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36363,13 +36363,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M23" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O23" t="n">
         <v>552.6880856233105</v>
@@ -36439,13 +36439,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>233.6192750078349</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N24" t="n">
         <v>200.663375406732</v>
@@ -36454,7 +36454,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36597,25 +36597,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K26" t="n">
-        <v>305.5266399037204</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P26" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502633</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P27" t="n">
-        <v>317.2553593571602</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36843,7 +36843,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
-        <v>447.0280453124392</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O29" t="n">
         <v>552.6880856233105</v>
@@ -36919,13 +36919,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N30" t="n">
-        <v>296.7840672645778</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
         <v>428.2502711927643</v>
@@ -37074,13 +37074,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37150,13 +37150,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N33" t="n">
         <v>200.663375406732</v>
@@ -37165,7 +37165,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>275.1160506279787</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37308,25 +37308,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O35" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>297.1213345704944</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>317.2553593571602</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37548,7 +37548,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>391.466876574329</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M38" t="n">
         <v>188.5852654802098</v>
@@ -37627,19 +37627,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>485.7189625742325</v>
+        <v>346.0836123757406</v>
       </c>
       <c r="M39" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O39" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37785,7 +37785,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
         <v>188.5852654802098</v>
@@ -37794,7 +37794,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233105</v>
+        <v>385.7577316459229</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588832</v>
@@ -37864,19 +37864,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>317.2553593571602</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
         <v>233.0438950105733</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>198.4634459340622</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>65.99447230164199</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>456.2045690198927</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>346.0836123757409</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>399.4948617396896</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
-        <v>343.0155132610399</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
-        <v>442.8012099492733</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
-        <v>26.5647503603961</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431889.0009836451</v>
+        <v>490742.4063030187</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840854.495975447</v>
+        <v>3842442.348868398</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10457196.99249323</v>
+        <v>10498891.9951863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8566164.688334364</v>
+        <v>8545531.187744074</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -791,19 +791,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>66.46948864201228</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>159.3458930507369</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>183.783629917503</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>87.80598074015799</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129.3677673775501</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069752</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>101.7728619794345</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>54.13059394607473</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>125.296670980563</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>49.22623797673975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.25623355020934</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>217.8936191896515</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>23.518763670051</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>2.454476553030544</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185.1266094715923</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>195.2591124216844</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815132</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
         <v>225.8573996139459</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.96389429824571</v>
+        <v>35.46527312190288</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>149.7366244913496</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -2137,16 +2137,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>339.121758904195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>19.59299030330405</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>24.19520516239823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>226.1976799756877</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>20.86956528937761</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>167.3715624658426</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>227.9017882635736</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>139.4808073423817</v>
+        <v>258.0742483170405</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>121.4683101124997</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>153.736232013259</v>
       </c>
       <c r="D29" t="n">
-        <v>270.7856227119594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>40.79728545481229</v>
       </c>
       <c r="F31" t="n">
-        <v>18.58007567966611</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>90.91850655161451</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>180.0188334367343</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>137.9199537831928</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>301.9180805187002</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>67.65966349238604</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>122.1022459852817</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>227.9017882635736</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>34.54782290890721</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>38.85539149269854</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>165.0140383262353</v>
+        <v>19.59299030330417</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>50.10526536220779</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>180.4598720439283</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>61.88032392562449</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>49.3421225276149</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.7186755353478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>112.214979957319</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>232.1154824550576</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,16 +4439,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>210.869396638348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>513.6311445709973</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6311445709973</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>827.8051051802445</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>760.6642075620503</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>760.6642075620503</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>760.6642075620503</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>760.6642075620503</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.0180478700184</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>377.8476075409624</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>481.6032601595282</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>776.0965082357626</v>
+        <v>629.6843634353082</v>
       </c>
       <c r="U6" t="n">
-        <v>547.8734151097865</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="V6" t="n">
-        <v>547.8734151097865</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W6" t="n">
-        <v>547.8734151097865</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X6" t="n">
-        <v>362.2333848900864</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.2333848900864</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>641.5543613459231</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>375.6533169502999</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>375.6533169502999</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>375.6533169502999</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>109.7522725546768</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415462</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>907.4554057415462</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>907.4554057415462</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.4554057415462</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>464.8677294288217</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C9" t="n">
-        <v>290.4147001476947</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="D9" t="n">
-        <v>159.7401876451189</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="E9" t="n">
-        <v>159.7401876451189</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>21.05936271613335</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>281.6689763282836</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>542.2785899404338</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>802.691654032926</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>994.6930287110247</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993085</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>880.4795283993085</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>880.4795283993085</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>880.4795283993085</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>880.4795283993085</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X9" t="n">
-        <v>672.6280281937757</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y9" t="n">
-        <v>464.8677294288217</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.520020130478</v>
+        <v>1461.53414598573</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.520020130478</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="D11" t="n">
-        <v>910.2543215237274</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="E11" t="n">
-        <v>524.4660689254831</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
@@ -5047,13 +5047,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M11" t="n">
-        <v>1415.85439839796</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.188611289942</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
         <v>1960.554969866447</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U11" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V11" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W11" t="n">
-        <v>2028.585618455679</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X11" t="n">
-        <v>1655.1198601946</v>
+        <v>1851.673477961542</v>
       </c>
       <c r="Y11" t="n">
-        <v>1655.1198601946</v>
+        <v>1461.53414598573</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K12" t="n">
-        <v>316.2580578546455</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L12" t="n">
-        <v>453.4876558703395</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.033005337444</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
         <v>2404.332520920175</v>
@@ -5159,10 +5159,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y12" t="n">
         <v>1134.337940986287</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
         <v>52.70091953961285</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>619.566119563728</v>
+        <v>926.0733070791971</v>
       </c>
       <c r="U13" t="n">
-        <v>330.4139431414077</v>
+        <v>636.9211306568769</v>
       </c>
       <c r="V13" t="n">
-        <v>330.4139431414077</v>
+        <v>636.9211306568769</v>
       </c>
       <c r="W13" t="n">
-        <v>280.6904704376302</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.410358284908</v>
+        <v>947.747370509825</v>
       </c>
       <c r="C14" t="n">
-        <v>916.4478413444967</v>
+        <v>947.747370509825</v>
       </c>
       <c r="D14" t="n">
-        <v>558.1821427377463</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E14" t="n">
-        <v>172.393890139502</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F14" t="n">
-        <v>172.393890139502</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G14" t="n">
         <v>172.393890139502</v>
@@ -5284,13 +5284,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>964.3339206741936</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M14" t="n">
-        <v>1596.051731657505</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N14" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O14" t="n">
         <v>1960.554969866447</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U14" t="n">
-        <v>2420.246115248354</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V14" t="n">
-        <v>2089.183227904783</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W14" t="n">
-        <v>1736.414572634669</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X14" t="n">
-        <v>1736.414572634669</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y14" t="n">
-        <v>1346.275240658857</v>
+        <v>947.747370509825</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L15" t="n">
-        <v>914.5356689828393</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M15" t="n">
-        <v>1094.033005337444</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.206884640153</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O15" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961285</v>
+        <v>395.510068819301</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>226.573885891394</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>76.45724647905831</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>76.45724647905831</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>76.45724647905831</v>
       </c>
       <c r="G16" t="n">
         <v>52.70091953961285</v>
@@ -5466,22 +5466,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>537.8542278890025</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V16" t="n">
-        <v>283.1697396831156</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W16" t="n">
-        <v>280.6904704376302</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961285</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961285</v>
+        <v>577.1585336495407</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1608.002821639955</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C17" t="n">
-        <v>1239.040304699543</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D17" t="n">
-        <v>880.774606092793</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E17" t="n">
-        <v>880.774606092793</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F17" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G17" t="n">
         <v>52.70091953961285</v>
@@ -5521,10 +5521,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.830939477471</v>
+        <v>2223.014688559784</v>
       </c>
       <c r="V17" t="n">
-        <v>2147.7680521339</v>
+        <v>1891.951801216213</v>
       </c>
       <c r="W17" t="n">
-        <v>1794.999396863786</v>
+        <v>1539.183145946099</v>
       </c>
       <c r="X17" t="n">
-        <v>1794.999396863786</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="Y17" t="n">
-        <v>1794.999396863786</v>
+        <v>1165.717387685019</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K18" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M18" t="n">
-        <v>1065.988200066146</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.70091953961285</v>
+        <v>835.1636279647756</v>
       </c>
       <c r="C19" t="n">
-        <v>52.70091953961285</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961285</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G19" t="n">
         <v>52.70091953961285</v>
@@ -5700,25 +5700,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>570.1076404745909</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="V19" t="n">
-        <v>570.1076404745909</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="W19" t="n">
-        <v>280.6904704376302</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="X19" t="n">
-        <v>52.70091953961285</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.70091953961285</v>
+        <v>1016.812092795015</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1140.175638163461</v>
+        <v>1694.01170171716</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.175638163461</v>
+        <v>1325.049184776748</v>
       </c>
       <c r="D20" t="n">
-        <v>781.9099395567109</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E20" t="n">
-        <v>781.9099395567109</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F20" t="n">
-        <v>370.9240347671034</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G20" t="n">
         <v>370.9240347671034</v>
@@ -5758,13 +5758,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M20" t="n">
-        <v>1219.059552207387</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N20" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O20" t="n">
         <v>1960.554969866447</v>
@@ -5785,19 +5785,19 @@
         <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V20" t="n">
-        <v>1835.491524649934</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W20" t="n">
-        <v>1482.72286937982</v>
+        <v>2067.477459978239</v>
       </c>
       <c r="X20" t="n">
-        <v>1140.175638163461</v>
+        <v>1694.01170171716</v>
       </c>
       <c r="Y20" t="n">
-        <v>1140.175638163461</v>
+        <v>1694.01170171716</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J21" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K21" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M21" t="n">
-        <v>1184.647451923042</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N21" t="n">
         <v>1430.928743686615</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.6371024675198</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961285</v>
+        <v>72.49181883587957</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5946,16 +5946,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V22" t="n">
-        <v>739.0438234024978</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W22" t="n">
-        <v>449.6266533655371</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X22" t="n">
-        <v>221.6371024675198</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y22" t="n">
-        <v>221.6371024675198</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>801.0095040659444</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="C23" t="n">
-        <v>432.0469871255327</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="D23" t="n">
-        <v>73.78128851878216</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="E23" t="n">
-        <v>73.78128851878216</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F23" t="n">
-        <v>73.78128851878216</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G23" t="n">
         <v>52.70091953961285</v>
@@ -5995,13 +5995,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>784.1365874146478</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M23" t="n">
-        <v>970.8360002400555</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N23" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O23" t="n">
         <v>1960.554969866447</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>1951.214434366958</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X23" t="n">
-        <v>1577.748676105878</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.609344130066</v>
+        <v>1109.25711111874</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L24" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M24" t="n">
-        <v>1232.27200203395</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N24" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O24" t="n">
         <v>1980.364752439338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.70091953961285</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E25" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F25" t="n">
         <v>52.70091953961285</v>
@@ -6180,19 +6180,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U25" t="n">
-        <v>596.8025777824604</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V25" t="n">
-        <v>342.1180895765735</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W25" t="n">
-        <v>52.70091953961285</v>
+        <v>537.5892342743621</v>
       </c>
       <c r="X25" t="n">
-        <v>52.70091953961285</v>
+        <v>537.5892342743621</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.70091953961285</v>
+        <v>537.5892342743621</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1635.525375631449</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C26" t="n">
         <v>1266.562858691037</v>
@@ -6217,13 +6217,13 @@
         <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6235,13 +6235,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M26" t="n">
-        <v>1219.059552207387</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N26" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6256,22 +6256,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V26" t="n">
-        <v>2166.554411993505</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W26" t="n">
-        <v>2166.554411993505</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X26" t="n">
-        <v>2025.664707607261</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="Y26" t="n">
-        <v>1635.525375631449</v>
+        <v>1653.162698755159</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D27" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K27" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L27" t="n">
-        <v>886.4908637115411</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1527.036213178646</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.692954831311</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>344.3323652074184</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C28" t="n">
-        <v>175.3961822795115</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>175.3961822795115</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>175.3961822795115</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>175.3961822795115</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>827.0064043113226</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U28" t="n">
-        <v>827.0064043113226</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V28" t="n">
-        <v>572.3219161054358</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W28" t="n">
-        <v>572.3219161054358</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X28" t="n">
-        <v>344.3323652074184</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y28" t="n">
-        <v>344.3323652074184</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1858.306804940709</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="C29" t="n">
-        <v>1858.306804940709</v>
+        <v>1327.433746134104</v>
       </c>
       <c r="D29" t="n">
-        <v>1584.785973918528</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="E29" t="n">
-        <v>1198.997721320284</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="F29" t="n">
-        <v>788.0118165306759</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G29" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
@@ -6469,16 +6469,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M29" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N29" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P29" t="n">
         <v>2389.870016205742</v>
@@ -6493,22 +6493,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V29" t="n">
-        <v>2635.045976980643</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W29" t="n">
-        <v>2635.045976980643</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X29" t="n">
-        <v>2635.045976980643</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="Y29" t="n">
-        <v>2244.906645004831</v>
+        <v>1482.72286937982</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D30" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454225</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L30" t="n">
-        <v>886.4908637115411</v>
+        <v>843.4113519543018</v>
       </c>
       <c r="M30" t="n">
-        <v>1232.27200203395</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N30" t="n">
-        <v>1430.928743686615</v>
+        <v>2136.130580724116</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.3817663337899</v>
+        <v>581.5699661317573</v>
       </c>
       <c r="C31" t="n">
-        <v>219.3817663337899</v>
+        <v>412.6337832038504</v>
       </c>
       <c r="D31" t="n">
-        <v>219.3817663337899</v>
+        <v>262.5171437915146</v>
       </c>
       <c r="E31" t="n">
-        <v>71.46867275139681</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6654,19 +6654,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V31" t="n">
-        <v>508.7989363707505</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W31" t="n">
-        <v>219.3817663337899</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X31" t="n">
-        <v>219.3817663337899</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.3817663337899</v>
+        <v>763.218430961997</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1448.400064182688</v>
+        <v>1234.670956571987</v>
       </c>
       <c r="C32" t="n">
-        <v>1448.400064182688</v>
+        <v>1234.670956571987</v>
       </c>
       <c r="D32" t="n">
-        <v>1266.562858691037</v>
+        <v>876.4052579652368</v>
       </c>
       <c r="E32" t="n">
-        <v>880.774606092793</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="F32" t="n">
-        <v>469.7887013031854</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>1219.059552207387</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N32" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U32" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V32" t="n">
-        <v>2225.139236222622</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.139236222622</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X32" t="n">
-        <v>2225.139236222622</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.99990424681</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D33" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.27200203395</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E34" t="n">
-        <v>221.3077645442295</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="F34" t="n">
-        <v>221.3077645442295</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6888,22 +6888,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>913.32251636947</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>913.32251636947</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>658.6380281635832</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.2208581266226</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1307.383399136297</v>
+        <v>1503.965479419981</v>
       </c>
       <c r="C35" t="n">
-        <v>1307.383399136297</v>
+        <v>1503.965479419981</v>
       </c>
       <c r="D35" t="n">
-        <v>949.1177005295465</v>
+        <v>1503.965479419981</v>
       </c>
       <c r="E35" t="n">
-        <v>949.1177005295465</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F35" t="n">
-        <v>538.131795739939</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G35" t="n">
-        <v>121.0440139763664</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H35" t="n">
-        <v>121.0440139763664</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
         <v>241.3408185533492</v>
@@ -6943,16 +6943,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M35" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N35" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P35" t="n">
         <v>2389.870016205742</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2381.354273725794</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.291386382223</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.522731112109</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.522731112109</v>
+        <v>1890.565319484102</v>
       </c>
       <c r="Y35" t="n">
-        <v>1307.383399136297</v>
+        <v>1890.565319484102</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D36" t="n">
         <v>642.7351650238404</v>
@@ -7007,31 +7007,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I36" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L36" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M36" t="n">
-        <v>1184.647451923042</v>
+        <v>1159.904271328221</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686615</v>
+        <v>1812.07815063093</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7040,7 +7040,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7055,10 +7055,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y36" t="n">
         <v>1134.337940986287</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961285</v>
+        <v>323.9496151273411</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>176.036521544948</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>176.036521544948</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7125,22 +7125,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>596.8025777824604</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>342.1180895765735</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W37" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X37" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1305.810728885682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="C38" t="n">
-        <v>1305.810728885682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D38" t="n">
-        <v>1305.810728885682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E38" t="n">
-        <v>920.0224762874379</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>509.0365714978304</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>91.94878973425784</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H38" t="n">
-        <v>91.94878973425784</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>1032.36013938198</v>
+        <v>295.8269799488417</v>
       </c>
       <c r="M38" t="n">
-        <v>1219.059552207387</v>
+        <v>927.5447909321535</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1554.852458992</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P38" t="n">
         <v>2389.870016205742</v>
@@ -7210,16 +7210,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V38" t="n">
-        <v>1679.276487146762</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W38" t="n">
-        <v>1679.276487146762</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="X38" t="n">
-        <v>1305.810728885682</v>
+        <v>1305.810728885683</v>
       </c>
       <c r="Y38" t="n">
-        <v>1305.810728885682</v>
+        <v>915.671396909871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,31 +7244,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4113519543016</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M39" t="n">
-        <v>1483.956701421406</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N39" t="n">
-        <v>2136.130580724115</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O39" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,7 +7277,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>885.9547542047806</v>
+        <v>1032.844701702691</v>
       </c>
       <c r="U40" t="n">
-        <v>596.8025777824604</v>
+        <v>743.6925252803707</v>
       </c>
       <c r="V40" t="n">
-        <v>342.1180895765735</v>
+        <v>489.0080370744838</v>
       </c>
       <c r="W40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>849.4750769274647</v>
+        <v>1515.240032077838</v>
       </c>
       <c r="C41" t="n">
-        <v>849.4750769274647</v>
+        <v>1146.277515137426</v>
       </c>
       <c r="D41" t="n">
-        <v>849.4750769274647</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="E41" t="n">
-        <v>463.6868243292204</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F41" t="n">
-        <v>52.70091953961286</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H41" t="n">
         <v>52.70091953961286</v>
@@ -7420,16 +7420,16 @@
         <v>1197.621189819594</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.320602645002</v>
+        <v>1829.339000802906</v>
       </c>
       <c r="N41" t="n">
-        <v>1578.654815536984</v>
+        <v>2319.158506392562</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7450,13 +7450,13 @@
         <v>2050.291386382223</v>
       </c>
       <c r="W41" t="n">
-        <v>1999.680007228478</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X41" t="n">
-        <v>1626.214248967398</v>
+        <v>1515.240032077838</v>
       </c>
       <c r="Y41" t="n">
-        <v>1236.074916991586</v>
+        <v>1515.240032077838</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
         <v>1232.272002033951</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961286</v>
+        <v>349.707506449859</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>349.707506449859</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F43" t="n">
         <v>52.70091953961286</v>
@@ -7593,28 +7593,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S43" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U43" t="n">
-        <v>763.4834245766374</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V43" t="n">
-        <v>508.7989363707505</v>
+        <v>570.500085593389</v>
       </c>
       <c r="W43" t="n">
-        <v>219.3817663337899</v>
+        <v>570.500085593389</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961286</v>
+        <v>570.500085593389</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961286</v>
+        <v>349.707506449859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1213.84265250818</v>
+        <v>1276.667304070977</v>
       </c>
       <c r="C44" t="n">
-        <v>1213.84265250818</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="D44" t="n">
-        <v>855.5769539014296</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="E44" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="F44" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
@@ -7678,22 +7678,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U44" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V44" t="n">
-        <v>2225.139236222622</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W44" t="n">
-        <v>2225.139236222622</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X44" t="n">
-        <v>1851.673477961542</v>
+        <v>1276.667304070977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1600.442492572302</v>
+        <v>1276.667304070977</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4113519543018</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M45" t="n">
-        <v>1483.956701421406</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N45" t="n">
-        <v>2136.130580724116</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O45" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P45" t="n">
         <v>2404.332520920175</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.7537418798555</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C46" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D46" t="n">
         <v>52.70091953961286</v>
@@ -7830,28 +7830,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1052.635600998958</v>
+        <v>939.2871363956051</v>
       </c>
       <c r="S46" t="n">
-        <v>1052.635600998958</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="T46" t="n">
-        <v>827.0064043113226</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="U46" t="n">
-        <v>827.0064043113226</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="V46" t="n">
-        <v>592.5463210233856</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="W46" t="n">
-        <v>592.5463210233856</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="X46" t="n">
-        <v>592.5463210233856</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.7537418798555</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452013</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>234.0901525809383</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429919</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>192.5268253278643</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>182.0175083429755</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>78.07077454018179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N12" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,16 +8932,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>182.0175083429755</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>279.310601277603</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>184.4078422411148</v>
       </c>
       <c r="N15" t="n">
         <v>458.0981188384286</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>250.7308605730627</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>167.9634363311155</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9406,16 +9406,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>80.70566279614627</v>
       </c>
       <c r="N21" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9643,16 +9643,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>250.7308605730627</v>
+        <v>213.8698272853573</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>48.10560617263505</v>
+        <v>103.7276367694164</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>250.7308605730627</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.12069185784497</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.3256869628133</v>
       </c>
       <c r="M30" t="n">
-        <v>167.9634363311152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>182.017508342976</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>48.10560617263482</v>
+        <v>279.3106012776033</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10591,13 +10591,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>8.862918322876368</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>237.9126116742302</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>207.4678568043326</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384286</v>
+        <v>167.963436331116</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,22 +11068,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>298.4699926239131</v>
       </c>
       <c r="O41" t="n">
-        <v>213.8698272853578</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>48.10560617263553</v>
+        <v>167.9634363311159</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>207.4678568043328</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311159</v>
       </c>
       <c r="N45" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22679,19 +22679,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
-        <v>16.10061421062355</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>156.5617083198471</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>40.81883564408471</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>21.98935528597443</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22953,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>86.81957671340953</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>75.28528753921148</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>119.1031814492129</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>18.07729818708867</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>35.71172517863411</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296158</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>263.5000297915731</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>352.7454517956367</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23466,10 +23466,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>98.07623374019573</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>237.2967603598512</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.4776081132712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>168.3443194664021</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>143.4020128845194</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23706,22 +23706,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>284.0685217835605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197.6072321918883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>55.89567380061627</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23940,22 +23940,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>237.2967603598513</v>
+        <v>250.7953815361941</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>204.9464171293333</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>30.60934177427407</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>147.3277862512664</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>227.9424381614298</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>155.7326900965741</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>392.0473386565592</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -24259,10 +24259,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>12.4604177160947</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>58.3588663945234</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24496,19 +24496,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>230.2502933360873</v>
+        <v>111.6568523614285</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.45246644207077</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24654,19 +24654,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>211.5366597577486</v>
       </c>
       <c r="D29" t="n">
-        <v>83.89741890872352</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>105.6366771917569</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8409723432651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24894,10 +24894,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>291.815335111866</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>174.6642081839487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.906738228335172</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25128,10 +25128,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>85.45295093756593</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>80.01228955356157</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.83637740150425</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>44.81853056928871</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25365,13 +25365,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>58.3588663945234</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>348.1860187545734</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>79.64064940119175</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.9207765545704</v>
@@ -25602,7 +25602,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>58.35886639452337</v>
+        <v>203.7799144174545</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>299.1357033552052</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>189.2712286345408</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.9207765545704</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>205.3658819001186</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>190.2573193982035</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>60.69561706280189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>320.3889781508541</v>
       </c>
       <c r="Y44" t="n">
-        <v>137.5192631207058</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>129.1731816677913</v>
+        <v>16.95820171047228</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>20.02216086877041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493620.5445765709</v>
+        <v>490531.2536378618</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509635.5853000616</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623531</v>
       </c>
       <c r="F2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="G2" t="n">
         <v>252134.9940623532</v>
@@ -26340,7 +26340,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="L2" t="n">
         <v>252134.9940623532</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>576404.8681646985</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98565.03158297982</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>50404.27455704983</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>50480.80391628888</v>
+        <v>50385.00392753456</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
@@ -26438,25 +26438,25 @@
         <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511374</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="P4" t="n">
         <v>36133.96051511372</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26493,19 +26493,19 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="O5" t="n">
         <v>52990.47783747559</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125189</v>
+        <v>-39420.93363321546</v>
       </c>
       <c r="C6" t="n">
-        <v>26588.92740361418</v>
+        <v>41348.4978983323</v>
       </c>
       <c r="D6" t="n">
-        <v>12499.89299923297</v>
+        <v>41348.49789833224</v>
       </c>
       <c r="E6" t="n">
-        <v>-419088.8864625798</v>
+        <v>-439089.5062151211</v>
       </c>
       <c r="F6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="G6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="H6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="I6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="J6" t="n">
-        <v>94256.03910301249</v>
+        <v>99381.15570989306</v>
       </c>
       <c r="K6" t="n">
-        <v>156402.7258996615</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="L6" t="n">
-        <v>152588.4185832713</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="M6" t="n">
-        <v>58750.95011913894</v>
+        <v>58336.82374259648</v>
       </c>
       <c r="N6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="O6" t="n">
-        <v>157315.9817021186</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="P6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,19 +26813,19 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O4" t="n">
         <v>658.7614942451607</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512754</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8036895137028</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.86374454105339</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>353.9054127035407</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588832</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>146.3615014728657</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N12" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35652,16 +35652,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>322.7535243442413</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
         <v>433.6515619588832</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>417.926356849011</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>365.7182830033419</v>
       </c>
       <c r="N15" t="n">
         <v>658.7614942451606</v>
@@ -35743,10 +35743,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M17" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
@@ -35974,7 +35974,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6268117378475</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36126,16 +36126,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>196.2971847393761</v>
+        <v>378.3146930823517</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622271</v>
+        <v>262.0161035583733</v>
       </c>
       <c r="N21" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36363,16 +36363,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
-        <v>447.0280453124388</v>
+        <v>410.1670120247334</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P23" t="n">
         <v>433.6515619588832</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
@@ -36445,13 +36445,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>229.4160469348621</v>
+        <v>285.0380775316435</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927643</v>
@@ -36600,7 +36600,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>391.4668765743286</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M26" t="n">
         <v>188.5852654802098</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
         <v>332.7559639452625</v>
@@ -36682,13 +36682,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N27" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
-        <v>257.2442400081082</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927643</v>
@@ -36837,13 +36837,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M29" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
         <v>552.6880856233105</v>
@@ -36916,19 +36916,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>465.9414425342213</v>
       </c>
       <c r="M30" t="n">
-        <v>349.2738770933423</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37074,16 +37074,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>378.3146930823521</v>
       </c>
       <c r="O32" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P32" t="n">
         <v>433.6515619588832</v>
@@ -37153,19 +37153,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M33" t="n">
-        <v>229.4160469348619</v>
+        <v>460.6210420398303</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37311,13 +37311,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M35" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>169.9864664731396</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>409.8005160347954</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588832</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0836123757406</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451606</v>
+        <v>368.626811737848</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37788,19 +37788,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>196.2971847393761</v>
+        <v>494.7671773632892</v>
       </c>
       <c r="O41" t="n">
-        <v>385.7577316459229</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
@@ -37867,7 +37867,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>229.4160469348626</v>
+        <v>349.273877093343</v>
       </c>
       <c r="N42" t="n">
         <v>200.663375406732</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>346.0836123757409</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122269</v>
+        <v>349.273877093343</v>
       </c>
       <c r="N45" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105733</v>
